--- a/medicine/Psychotrope/Torra_(bière)/Torra_(bière).xlsx
+++ b/medicine/Psychotrope/Torra_(bière)/Torra_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Torra_(bi%C3%A8re)</t>
+          <t>Torra_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Torra est une marque de bière corse. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Torra_(bi%C3%A8re)</t>
+          <t>Torra_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Initialement brassée par la Brasserie Duyck à Jenlain[1], elle est brassée depuis 2004[2] par la société Socobo, dans la Brasserie de Corse à Ajaccio.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement brassée par la Brasserie Duyck à Jenlain, elle est brassée depuis 2004 par la société Socobo, dans la Brasserie de Corse à Ajaccio.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Torra_(bi%C3%A8re)</t>
+          <t>Torra_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux variétés de Torra sont commercialisées : une blonde parfumée à l'arbouse qui titre 5,5 % et une ambrée à la myrte, qui elle titre 6 %.
 </t>
